--- a/configTools/Luban/ConfigRoot/Datas/special_effects.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/special_effects.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="special_effect" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="特效说明" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="special_effect_movement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="special_effect" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="特效说明" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="special_effect_movement" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="float_text_type">[1]配置参数!$A$169:$A$180</definedName>
@@ -1022,8 +1022,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="←导出中转←"/>
@@ -1047,8 +1047,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="skill_effect|技能效果"/>
       <sheetName val="技能元素"/>
@@ -1520,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9891,12 +9891,12 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10353,12 +10353,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10535,7 +10535,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/special_effects.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/special_effects.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="special_effect" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="特效说明" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="special_effect_movement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="special_effect" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="特效说明" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="special_effect_movement" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="float_text_type">[1]配置参数!$A$169:$A$180</definedName>
@@ -1022,8 +1022,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="←导出中转←"/>
@@ -1047,8 +1047,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="skill_effect|技能效果"/>
       <sheetName val="技能元素"/>

--- a/configTools/Luban/ConfigRoot/Datas/special_effects.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/special_effects.xlsx
@@ -1520,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9891,12 +9891,12 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10353,12 +10353,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10535,7 +10535,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
